--- a/gyros-accelerometers.xlsx
+++ b/gyros-accelerometers.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Desktop\pixel-props\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8265" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gyros" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Accelerometers" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>price</t>
   </si>
@@ -84,6 +83,33 @@
   </si>
   <si>
     <t>L3G4200D</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?FV=fff4001e%2Cfff80113%2C3600015%2C38c0002%2C38c0003%2C38c0006%2C38c000c%2C38c0012%2C38c0015%2C38c0016%2C38c0018%2C38c001d%2C38c001e%2C38c001f%2C38c0021%2C38c0023%2C38c0027%2C38c002c%2C38c002d%2C38c002e%2C38c002f%2C38c0033%2C38c0034%2C38c0036%2C38c0037%2C38c003a%2C38c003e%2C38c0041%2C38c0048%2C38c0049%2C38c0052%2C38c0053%2C38c005b%2C38c005c%2C38c005d%2C38c005e&amp;k=accelerometer&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=1000011&amp;page=1&amp;stock=0&amp;pbfree=0&amp;rohs=0&amp;quantity=&amp;ptm=0&amp;fid=0&amp;pageSize=25</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?FV=fff4001e%2Cfff8048b%2C11e00012%2C11e00015%2C11e0001a%2C11e0001b%2C11e0001e%2C11e0001f&amp;k=gyro&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=1000011&amp;page=1&amp;stock=0&amp;pbfree=0&amp;rohs=0&amp;quantity=&amp;ptm=0&amp;fid=0&amp;pageSize=25</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/10955</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/9836</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/retired/9723</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/10345</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/10252</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/datasheets/Sensors/Accelerometer/ADXL345.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/datasheets/Sensors/IMU/ps-imu-3000a-00-01.1.pdf</t>
   </si>
 </sst>
 </file>
@@ -429,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,23 +543,29 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
     <hyperlink ref="G5" r:id="rId2"/>
     <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="G8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,10 +644,46 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" display="http://dlnmh9ip6v2uc.cloudfront.net/datasheets/Components/General IC/PS-MPU-6000A.pdf"/>
     <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I5" r:id="rId3"/>
+    <hyperlink ref="I6" r:id="rId4"/>
+    <hyperlink ref="I7" r:id="rId5"/>
+    <hyperlink ref="I8" r:id="rId6"/>
+    <hyperlink ref="I9" r:id="rId7"/>
+    <hyperlink ref="H11" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -623,10 +691,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +725,21 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" display="http://www.digikey.com/product-search/en?FV=fff4001e%2Cfff80113%2C3600015%2C38c0002%2C38c0003%2C38c0006%2C38c000c%2C38c0012%2C38c0015%2C38c0016%2C38c0018%2C38c001d%2C38c001e%2C38c001f%2C38c0021%2C38c0023%2C38c0027%2C38c002c%2C38c002d%2C38c002e%2C38c002f%2C38c0033%2C38c0034%2C38c0036%2C38c0037%2C38c003a%2C38c003e%2C38c0041%2C38c0048%2C38c0049%2C38c0052%2C38c0053%2C38c005b%2C38c005c%2C38c005d%2C38c005e&amp;k=accelerometer&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=1000011&amp;page=1&amp;stock=0&amp;pbfree=0&amp;rohs=0&amp;quantity=&amp;ptm=0&amp;fid=0&amp;pageSize=25"/>
+    <hyperlink ref="G9" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gyros-accelerometers.xlsx
+++ b/gyros-accelerometers.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>price</t>
   </si>
@@ -37,15 +37,9 @@
     <t>link</t>
   </si>
   <si>
-    <t>http://dlnmh9ip6v2uc.cloudfront.net/datasheets/Components/General%20IC/PS-MPU-6000A.pdf</t>
-  </si>
-  <si>
     <t>datasheet</t>
   </si>
   <si>
-    <t>MPU-6050 Gyro and Acc</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/MPU-6050/1428-1007-1-ND/4038010</t>
   </si>
   <si>
@@ -79,18 +73,9 @@
     <t>comments</t>
   </si>
   <si>
-    <t>sparkfun support</t>
-  </si>
-  <si>
     <t>L3G4200D</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-search/en?FV=fff4001e%2Cfff80113%2C3600015%2C38c0002%2C38c0003%2C38c0006%2C38c000c%2C38c0012%2C38c0015%2C38c0016%2C38c0018%2C38c001d%2C38c001e%2C38c001f%2C38c0021%2C38c0023%2C38c0027%2C38c002c%2C38c002d%2C38c002e%2C38c002f%2C38c0033%2C38c0034%2C38c0036%2C38c0037%2C38c003a%2C38c003e%2C38c0041%2C38c0048%2C38c0049%2C38c0052%2C38c0053%2C38c005b%2C38c005c%2C38c005d%2C38c005e&amp;k=accelerometer&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=1000011&amp;page=1&amp;stock=0&amp;pbfree=0&amp;rohs=0&amp;quantity=&amp;ptm=0&amp;fid=0&amp;pageSize=25</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-search/en?FV=fff4001e%2Cfff8048b%2C11e00012%2C11e00015%2C11e0001a%2C11e0001b%2C11e0001e%2C11e0001f&amp;k=gyro&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=1000011&amp;page=1&amp;stock=0&amp;pbfree=0&amp;rohs=0&amp;quantity=&amp;ptm=0&amp;fid=0&amp;pageSize=25</t>
-  </si>
-  <si>
     <t>https://www.sparkfun.com/products/10955</t>
   </si>
   <si>
@@ -109,7 +94,109 @@
     <t>https://www.sparkfun.com/datasheets/Sensors/Accelerometer/ADXL345.pdf</t>
   </si>
   <si>
-    <t>https://www.sparkfun.com/datasheets/Sensors/IMU/ps-imu-3000a-00-01.1.pdf</t>
+    <t>http://www.digikey.com/product-detail/en/BMG160/828-1042-1-ND/4196689</t>
+  </si>
+  <si>
+    <t>BMG160</t>
+  </si>
+  <si>
+    <t>http://ae-bst.resource.bosch.com/media/products/dokumente/bmg160/BST-BMG160-DS000-07_published.pdf</t>
+  </si>
+  <si>
+    <t>precision (dps/LSB)</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/L3GD20HTR/497-13931-1-ND/4357644</t>
+  </si>
+  <si>
+    <t>L3GD20HTR</t>
+  </si>
+  <si>
+    <t>http://www.st.com/web/en/resource/technical/document/datasheet/DM00060659.pdf</t>
+  </si>
+  <si>
+    <t>L3GD20TR</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/L3GD20TR/497-12081-1-ND/2793125</t>
+  </si>
+  <si>
+    <t>http://www.st.com/web/en/resource/technical/document/datasheet/DM00036465.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> range (+- dps)</t>
+  </si>
+  <si>
+    <t>http://datasheets.maximintegrated.com/en/ds/MAX21000.pdf</t>
+  </si>
+  <si>
+    <t>MAX21000</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/MAX21000%2B/MAX21000%2B-ND/3975961</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/datasheets/Sensors/Gyro/PS-ITG-3200-00-01.4.pdf</t>
+  </si>
+  <si>
+    <t>10MHz SPI, also I2C</t>
+  </si>
+  <si>
+    <t>has SPI, I2C</t>
+  </si>
+  <si>
+    <t>http://www.cdiweb.com/datasheets/invensense/MPU-6050_DataSheet_V3%204.pdf</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/MPU-6500/1428-1011-1-ND/4385413</t>
+  </si>
+  <si>
+    <t>MPU-6500</t>
+  </si>
+  <si>
+    <t>MPU-6050</t>
+  </si>
+  <si>
+    <t>I2C only</t>
+  </si>
+  <si>
+    <t>I2C or SPI</t>
+  </si>
+  <si>
+    <t>MPU-6000</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/MPU-6000/1428-1005-1-ND/4038006</t>
+  </si>
+  <si>
+    <t>MPU-9150</t>
+  </si>
+  <si>
+    <t>http://www.cdiweb.com/datasheets/invensense/MPU-9150_DataSheet_V4%203.pdf</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/MPU-9150/1428-1009-1-ND/4038014</t>
+  </si>
+  <si>
+    <t>mg/LSB</t>
+  </si>
+  <si>
+    <t>lsb/g</t>
+  </si>
+  <si>
+    <t>lsb/mg</t>
+  </si>
+  <si>
+    <t>broad search:</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?FV=fff4001e%2Cfff80113%2Cd80035%2Cd80210%2Cd8022e%2Cd8026e%2Cd80273%2Cd80274%2Cd80275%2Cd8027a%2Cd80280%2Cd8029b%2Cd802c1%2Cd802e6%2Cd802e7%2Cd80301%2Cd803da%2C3600011%2C3600012%2C3600013%2C3600014%2C3600015%2C3600017%2C3600018%2C38c0002%2C38c0003%2C38c0004%2C38c0005%2C38c0006%2C38c0007%2C38c0008%2C38c0009%2C38c000a%2C38c000c%2C38c000e%2C38c000f%2C38c0011%2C38c0012%2C38c0015%2C38c0016%2C38c0018%2C38c001a%2C38c001c%2C38c001d%2C38c001e%2C38c001f%2C38c0021%2C38c0022%2C38c0023%2C38c0027%2C38c0028%2C38c002c%2C38c002d%2C38c002f%2C38c0030%2C38c0031%2C38c0032%2C38c0033%2C38c0034%2C38c0035%2C38c0036%2C38c0037%2C38c0038%2C38c0039%2C38c003a%2C38c003b%2C38c003c%2C38c003d%2C38c003e%2C38c0041%2C38c0042%2C38c0044%2C38c0045%2C38c0046%2C38c0047%2C38c0048%2C38c0049%2C38c004a%2C38c004d%2C38c004e%2C38c004f%2C38c0051%2C38c0052%2C38c0053%2C38c0054%2C38c0055%2C38c005a%2C38c005b%2C38c005c%2C38c005d%2C38c005e%2C38c0060%2C38c0062&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=1000011&amp;page=1&amp;stock=0&amp;pbfree=0&amp;rohs=0&amp;quantity=&amp;ptm=0&amp;fid=0&amp;pageSize=25</t>
+  </si>
+  <si>
+    <t>narrower search:</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-search/en?FV=fff4001e%2Cfff80113%2Cd80035%2Cd8026e%2Cd80273%2Cd80274%2Cd80275%2Cd8027a%2Cd8029b%2Cd802e7%2Cd803da%2C3600011%2C3600012%2C3600013%2C3600014%2C3600015%2C3600017%2C3600018%2C38c0002%2C38c0006%2C38c0012%2C38c0015%2C38c0018%2C38c001c%2C38c001d%2C38c002d%2C38c0034%2C38c003c%2C38c0048%2C38c005d%2C38c0060&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=1000011&amp;page=2&amp;stock=0&amp;pbfree=0&amp;rohs=0&amp;quantity=&amp;ptm=0&amp;fid=0&amp;pageSize=25</t>
   </si>
 </sst>
 </file>
@@ -458,16 +545,18 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -475,102 +564,208 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="2">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2000</v>
       </c>
       <c r="D3" s="2">
+        <f>C3*2/(2^16)</f>
+        <v>6.103515625E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6.71</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6.95</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="2">
         <f>1/14.375</f>
         <v>6.9565217391304349E-2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E7" s="4">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G5" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
-    <hyperlink ref="G8" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="F3" r:id="rId5"/>
+    <hyperlink ref="G4" r:id="rId6"/>
+    <hyperlink ref="F4" r:id="rId7"/>
+    <hyperlink ref="G5" r:id="rId8"/>
+    <hyperlink ref="F5" r:id="rId9"/>
+    <hyperlink ref="F2" r:id="rId10"/>
+    <hyperlink ref="G2" r:id="rId11"/>
+    <hyperlink ref="F7" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -584,39 +779,72 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2*2/(2^16)</f>
+        <v>6.103515625E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
         <v>16</v>
+      </c>
+      <c r="G2" s="4">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -635,55 +863,84 @@
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
-        <v>17</v>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="2">
+        <f>1/16.4</f>
+        <v>6.0975609756097567E-2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="2">
+        <f>1/16.4</f>
+        <v>6.0975609756097567E-2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H11" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="http://dlnmh9ip6v2uc.cloudfront.net/datasheets/Components/General IC/PS-MPU-6000A.pdf"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I5" r:id="rId3"/>
-    <hyperlink ref="I6" r:id="rId4"/>
-    <hyperlink ref="I7" r:id="rId5"/>
-    <hyperlink ref="I8" r:id="rId6"/>
-    <hyperlink ref="I9" r:id="rId7"/>
-    <hyperlink ref="H11" r:id="rId8"/>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2" display="http://www.cdiweb.com/datasheets/invensense/MPU-6050_DataSheet_V3 4.pdf"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="H2" r:id="rId4" display="http://www.cdiweb.com/datasheets/invensense/MPU-6050_DataSheet_V3 4.pdf"/>
+    <hyperlink ref="I2" r:id="rId5"/>
+    <hyperlink ref="H5" r:id="rId6" display="http://www.cdiweb.com/datasheets/invensense/MPU-9150_DataSheet_V4 3.pdf"/>
+    <hyperlink ref="I5" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -691,10 +948,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,38 +964,115 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>3/(2^14)</f>
+        <v>1.8310546875E-4</v>
+      </c>
+      <c r="D23">
+        <f>C23*1000</f>
+        <v>0.18310546875</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f>1/C23</f>
+        <v>5461.333333333333</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <f>C24/1000</f>
+        <v>5.4613333333333332</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" display="http://www.digikey.com/product-search/en?FV=fff4001e%2Cfff80113%2C3600015%2C38c0002%2C38c0003%2C38c0006%2C38c000c%2C38c0012%2C38c0015%2C38c0016%2C38c0018%2C38c001d%2C38c001e%2C38c001f%2C38c0021%2C38c0023%2C38c0027%2C38c002c%2C38c002d%2C38c002e%2C38c002f%2C38c0033%2C38c0034%2C38c0036%2C38c0037%2C38c003a%2C38c003e%2C38c0041%2C38c0048%2C38c0049%2C38c0052%2C38c0053%2C38c005b%2C38c005c%2C38c005d%2C38c005e&amp;k=accelerometer&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=1000011&amp;page=1&amp;stock=0&amp;pbfree=0&amp;rohs=0&amp;quantity=&amp;ptm=0&amp;fid=0&amp;pageSize=25"/>
-    <hyperlink ref="G9" r:id="rId2"/>
+    <hyperlink ref="G9" r:id="rId1"/>
+    <hyperlink ref="G14" r:id="rId2"/>
+    <hyperlink ref="G15" r:id="rId3"/>
+    <hyperlink ref="G16" r:id="rId4"/>
+    <hyperlink ref="G17" r:id="rId5"/>
+    <hyperlink ref="G18" r:id="rId6"/>
+    <hyperlink ref="G30" r:id="rId7" display="http://www.digikey.com/product-search/en?FV=fff4001e%2Cfff80113%2Cd80035%2Cd80210%2Cd8022e%2Cd8026e%2Cd80273%2Cd80274%2Cd80275%2Cd8027a%2Cd80280%2Cd8029b%2Cd802c1%2Cd802e6%2Cd802e7%2Cd80301%2Cd803da%2C3600011%2C3600012%2C3600013%2C3600014%2C3600015%2C3600017%2C3600018%2C38c0002%2C38c0003%2C38c0004%2C38c0005%2C38c0006%2C38c0007%2C38c0008%2C38c0009%2C38c000a%2C38c000c%2C38c000e%2C38c000f%2C38c0011%2C38c0012%2C38c0015%2C38c0016%2C38c0018%2C38c001a%2C38c001c%2C38c001d%2C38c001e%2C38c001f%2C38c0021%2C38c0022%2C38c0023%2C38c0027%2C38c0028%2C38c002c%2C38c002d%2C38c002f%2C38c0030%2C38c0031%2C38c0032%2C38c0033%2C38c0034%2C38c0035%2C38c0036%2C38c0037%2C38c0038%2C38c0039%2C38c003a%2C38c003b%2C38c003c%2C38c003d%2C38c003e%2C38c0041%2C38c0042%2C38c0044%2C38c0045%2C38c0046%2C38c0047%2C38c0048%2C38c0049%2C38c004a%2C38c004d%2C38c004e%2C38c004f%2C38c0051%2C38c0052%2C38c0053%2C38c0054%2C38c0055%2C38c005a%2C38c005b%2C38c005c%2C38c005d%2C38c005e%2C38c0060%2C38c0062&amp;mnonly=0&amp;newproducts=0&amp;ColumnSort=1000011&amp;page=1&amp;stock=0&amp;pbfree=0&amp;rohs=0&amp;quantity=&amp;ptm=0&amp;fid=0&amp;pageSize=25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gyros-accelerometers.xlsx
+++ b/gyros-accelerometers.xlsx
@@ -545,7 +545,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +760,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
